--- a/biology/Histoire de la zoologie et de la botanique/Johann_Heinrich_Linck_l'Ancien/Johann_Heinrich_Linck_l'Ancien.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Johann_Heinrich_Linck_l'Ancien/Johann_Heinrich_Linck_l'Ancien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Johann_Heinrich_Linck_l%27Ancien</t>
+          <t>Johann_Heinrich_Linck_l'Ancien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Heinrich Linck dit l'Ancien (né le 17 décembre 1674 à Leipzig et mort dans cette même ville le 29 octobre 1734) est un pharmacien, collectionneur et naturaliste allemand.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Johann_Heinrich_Linck_l%27Ancien</t>
+          <t>Johann_Heinrich_Linck_l'Ancien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Johann Heinrich est le fils de Heinrich Linck, pharmacien à Leipzig, collectionneur et fondateur d'un cabinet de curiosités. Après une année d'études à Copenhague, il voyage en Suède, Danemark, Pays-Bas autrichiens, Angleterre, ville libre de Danzig pour parfaire sa formation de pharmacien. Il entre aussi en contact avec plusieurs collectionneurs ; il visite les cabinets de curiosités d'Albertus Seba à Amsterdam et de Jacob Theodor Klein à Danzig et rencontre Hans Sloane et John Woodward au Gresham College à Londres. Il reprend la pharmacie paternelle, Au Lion d'Or, en 1710 avec son frère Christian Heinrich ; parallèlement il enrichit les collections de son père[1]. Il rédige un traité sur les étoiles de mer, illustré par Christian Gabriel Fischer et publié en 1733.
-Son fils, Johann Heinrich Linck, dit le Jeune, dressa le catalogue de ses collections[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Johann Heinrich est le fils de Heinrich Linck, pharmacien à Leipzig, collectionneur et fondateur d'un cabinet de curiosités. Après une année d'études à Copenhague, il voyage en Suède, Danemark, Pays-Bas autrichiens, Angleterre, ville libre de Danzig pour parfaire sa formation de pharmacien. Il entre aussi en contact avec plusieurs collectionneurs ; il visite les cabinets de curiosités d'Albertus Seba à Amsterdam et de Jacob Theodor Klein à Danzig et rencontre Hans Sloane et John Woodward au Gresham College à Londres. Il reprend la pharmacie paternelle, Au Lion d'Or, en 1710 avec son frère Christian Heinrich ; parallèlement il enrichit les collections de son père. Il rédige un traité sur les étoiles de mer, illustré par Christian Gabriel Fischer et publié en 1733.
+Son fils, Johann Heinrich Linck, dit le Jeune, dressa le catalogue de ses collections.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Johann_Heinrich_Linck_l%27Ancien</t>
+          <t>Johann_Heinrich_Linck_l'Ancien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Johannis Henrici Linckii, ... De Stellis marinis liber singularis, tabularum aenearum figuras... et autoris observationes disposuit... Christianus Gabriel Fischer,... Accedunt Edw. Luidii, de Réaumur et Dav. Kade hujus argumenti opuscula, apud J. Schusterum, 1733, 107 p., 52 planches.</t>
         </is>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Johann_Heinrich_Linck_l%27Ancien</t>
+          <t>Johann_Heinrich_Linck_l'Ancien</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Giovanni Domenico Nardo lui a dédié un genre d'étoiles de mer, Linckia, en 1834[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Giovanni Domenico Nardo lui a dédié un genre d'étoiles de mer, Linckia, en 1834.
 </t>
         </is>
       </c>
